--- a/experiences/bucket_list/bucket_list.xlsx
+++ b/experiences/bucket_list/bucket_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/ethanmorse.github.io/experiences/bucket_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3A175-654E-7A4B-A8C4-67A1354DDE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58FC6F-13F2-0140-9EDE-E9142F5FAE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26300" yWindow="520" windowWidth="25440" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
   <sheets>
     <sheet name="bucket_list" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>Item</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>https://cyclingtips.com/2018/05/the-pamir-highway-a-solo-ride-across-the-barren-heart-of-central-asia/ https://backpackingman.com/pamir-highway-tajikistan-advice/</t>
+  </si>
+  <si>
+    <t>Yasnya Polyana</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod Oblast</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy's estate</t>
+  </si>
+  <si>
+    <t>Trans-Siberian Railroad</t>
+  </si>
+  <si>
+    <t>Travel by train across Russia (possibly also through Mongolia, China)</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
@@ -265,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,8 +625,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
@@ -739,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
@@ -928,8 +950,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucket_list/bucket_list.xlsx
+++ b/experiences/bucket_list/bucket_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/ethanmorse.github.io/experiences/bucket_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucket_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58FC6F-13F2-0140-9EDE-E9142F5FAE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B14CA-8354-174A-A244-5296E601283B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
   <sheets>
     <sheet name="bucket_list" sheetId="2" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>Item</t>
   </si>
@@ -235,6 +229,33 @@
   </si>
   <si>
     <t>Summer</t>
+  </si>
+  <si>
+    <t>Deer Creek Canyon Park</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Ride bike down the roads</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4Mmx8soDJ6s</t>
+  </si>
+  <si>
+    <t>Virginia Museum of Fine Arts - Edward Hopper hotel room</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>https://www.artsy.net/news/artsy-editorial-visitors-sleep-edward-hopper-painting-virginia-museum-fine-arts</t>
+  </si>
+  <si>
+    <t>See EH exhibit + take picture in the hotel room</t>
   </si>
 </sst>
 </file>
@@ -286,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +328,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,9 +646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342FAC78-5B3A-664B-97C9-E66C3430DD7B}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,23 +1021,76 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1092,6 +1167,8 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="H13" r:id="rId1" display="https://cyclingtips.com/2018/05/the-pamir-highway-a-solo-ride-across-the-barren-heart-of-central-asia/" xr:uid="{F3EE58BC-AAD4-494B-915C-82FD8C9DFE50}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{6C309858-5937-A240-B187-E9361552CF6A}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{E39B638B-983B-0D4D-97C2-03664C7AA0F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiences/bucket_list/bucket_list.xlsx
+++ b/experiences/bucket_list/bucket_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucket_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B14CA-8354-174A-A244-5296E601283B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C963236-20AF-9447-A621-FA45FD7E2728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>Item</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>See EH exhibit + take picture in the hotel room</t>
+  </si>
+  <si>
+    <t>Philadelphia Oddities</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>https://www.ushistory.org/oddities/index.htm</t>
   </si>
 </sst>
 </file>
@@ -648,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1085,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1200,7 @@
     <hyperlink ref="H13" r:id="rId1" display="https://cyclingtips.com/2018/05/the-pamir-highway-a-solo-ride-across-the-barren-heart-of-central-asia/" xr:uid="{F3EE58BC-AAD4-494B-915C-82FD8C9DFE50}"/>
     <hyperlink ref="H16" r:id="rId2" xr:uid="{6C309858-5937-A240-B187-E9361552CF6A}"/>
     <hyperlink ref="H17" r:id="rId3" xr:uid="{E39B638B-983B-0D4D-97C2-03664C7AA0F7}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{C59FD3FA-8D2E-2D4A-813F-0969F2798280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
